--- a/Streams/inputs/water_quality/ARL_codes.xlsx
+++ b/Streams/inputs/water_quality/ARL_codes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f93f53ee50e32d6a/Research/PhD/Data/wq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f93f53ee50e32d6a/Research/PhD/Data_analysis/water_quality-spectroscopy/Streams/inputs/water_quality/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="852" documentId="8_{27C23605-6C9F-4F0B-8D37-16F546B4F8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DAF05CC-BA06-46EF-9BB3-849F52438DA3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{BF1D6E08-F958-4067-8876-A38B645DDDF9}"/>
+    <workbookView xWindow="-20268" yWindow="144" windowWidth="20376" windowHeight="12216" xr2:uid="{BF1D6E08-F958-4067-8876-A38B645DDDF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -439,16 +439,16 @@
   <dimension ref="A1:F256"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="A257" sqref="A257"/>
+      <selection activeCell="A228" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -499,7 +499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -516,7 +516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -533,7 +533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -550,7 +550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -567,7 +567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -584,7 +584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -601,7 +601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -618,7 +618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -635,7 +635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -652,7 +652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -669,7 +669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -686,7 +686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -703,7 +703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -720,7 +720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -737,7 +737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -754,7 +754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -771,7 +771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -788,7 +788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -805,7 +805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -822,7 +822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -839,7 +839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -856,7 +856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -873,7 +873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -890,7 +890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -907,7 +907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -924,7 +924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -941,7 +941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -958,7 +958,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -975,7 +975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -992,7 +992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>9</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>9</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>9</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>11</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>6</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>9</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>10</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>9</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>6</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>9</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>10</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>10</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>9</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>11</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>8</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>10</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>10</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>6</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>6</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>9</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>8</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>10</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>9</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>8</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>9</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>6</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>6</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>10</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>5</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>10</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>9</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>10</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>9</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>11</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>5</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>8</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>5</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>8</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>11</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>5</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>6</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>9</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>9</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>5</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>8</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>6</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>7</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>10</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>10</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>8</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>8</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>9</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>6</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>11</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>5</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>10</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>11</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>10</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>6</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>7</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>9</v>
       </c>
